--- a/6.BanHangVNET/CK/Chiết-Khấu-tháng-09-2024.xlsx
+++ b/6.BanHangVNET/CK/Chiết-Khấu-tháng-09-2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0879A5-CEF7-496F-9F9B-26866CD3BACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183ED27-3136-4DBF-918C-00F88178AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,21 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,14 +799,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,113 +850,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1553,55 +1553,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="89" t="s">
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="91" t="str">
+      <c r="E5" s="86" t="str">
         <f>'Phieu Tinh CK'!E6:H6</f>
         <v>Hà Nội, Ngày 30 Tháng 09 Năm 2024</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -1612,13 +1612,13 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1688,14 +1688,14 @@
         <v>64</v>
       </c>
       <c r="C12" s="5">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D12" s="16">
         <v>6000</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>870000</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>63</v>
@@ -1709,14 +1709,14 @@
         <v>78</v>
       </c>
       <c r="C13" s="5">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D13" s="16">
         <v>10000</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ref="E13" si="1">C13*D13</f>
-        <v>500000</v>
+        <v>120000</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -1728,40 +1728,40 @@
         <v>77</v>
       </c>
       <c r="C14" s="5">
-        <v>600</v>
+        <v>225</v>
       </c>
       <c r="D14" s="16">
         <v>6000</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>3600000</v>
+        <v>1350000</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="47">
         <f>SUM(C11:C14)</f>
-        <v>850</v>
+        <v>382</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="73">
         <f>SUM(E11:E14)</f>
-        <v>5300000</v>
+        <v>2340000</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -1782,14 +1782,14 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="68" t="s">
         <v>58</v>
       </c>
@@ -1798,14 +1798,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="81"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="39" t="s">
         <v>30</v>
       </c>
@@ -1846,14 +1846,14 @@
       <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="68" t="s">
         <v>57</v>
       </c>
@@ -1895,13 +1895,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A19:B19"/>
@@ -1910,6 +1903,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1944,62 +1944,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="86" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
@@ -2008,12 +2008,12 @@
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -2034,15 +2034,15 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25">
         <f>'Bang Tinh CK'!E16</f>
-        <v>5300000</v>
+        <v>2340000</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -2059,10 +2059,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="107"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="4">
         <f>COUNTIFS(C15:C20, "&gt;=2.5",C15:C20,"&lt;7")</f>
         <v>0</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E15" s="19">
         <f>($C$9*D15)/$D$19</f>
-        <v>1394736.8421052631</v>
+        <v>615789.47368421056</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="H15" s="16">
         <f>((E15-F15)+($F$21/10))-G15</f>
-        <v>1394736.8421052631</v>
+        <v>615789.47368421056</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="E16" s="19">
         <f>($C$9*D16)/$D$19</f>
-        <v>1115789.4736842106</v>
+        <v>492631.57894736843</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="H16" s="16">
         <f>((E16-F16)+($F$21/10))-G16</f>
-        <v>1115789.4736842106</v>
+        <v>492631.57894736843</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E17" s="19">
         <f>($C$9*D17)/$D$19</f>
-        <v>1394736.8421052631</v>
+        <v>615789.47368421056</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H17" s="16">
         <f>((E17-F17)+($F$21/10))-G17</f>
-        <v>1394736.8421052631</v>
+        <v>615789.47368421056</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E18" s="19">
         <f>($C$9*D18)/$D$19</f>
-        <v>1394736.8421052631</v>
+        <v>615789.47368421056</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2210,15 +2210,15 @@
       </c>
       <c r="H18" s="16">
         <f>((E18-F18)+($F$21/10))-G18</f>
-        <v>1394736.8421052631</v>
+        <v>615789.47368421056</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="32">
         <f>SUM(D15:D18)</f>
         <v>380</v>
@@ -2251,15 +2251,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="34"/>
       <c r="E21" s="21">
         <f>SUM(E15:E18)</f>
-        <v>5300000</v>
+        <v>2340000</v>
       </c>
       <c r="F21" s="21">
         <f>SUM(F15:F20)</f>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H15:H20)</f>
-        <v>5300000</v>
+        <v>2340000</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2281,10 +2281,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="31" t="s">
         <v>27</v>
       </c>
@@ -2293,16 +2293,16 @@
         <v>58</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="107"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="81"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="39" t="s">
         <v>30</v>
       </c>
@@ -2310,10 +2310,10 @@
       <c r="E25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -2332,10 +2332,10 @@
       <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="31" t="s">
         <v>28</v>
       </c>
@@ -2344,10 +2344,10 @@
         <v>57</v>
       </c>
       <c r="F30" s="38"/>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="107"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
@@ -2356,23 +2356,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2405,58 +2405,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133"/>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134" t="s">
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="143" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="144"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="143" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -2496,27 +2496,27 @@
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="58" t="s">
         <v>46</v>
       </c>
@@ -2529,9 +2529,9 @@
       <c r="F9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
@@ -2553,11 +2553,11 @@
         <f>D10-E10</f>
         <v>501</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="139"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
@@ -2579,11 +2579,11 @@
         <f>D11-E11</f>
         <v>200</v>
       </c>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
@@ -2605,11 +2605,11 @@
         <f>D12-E12</f>
         <v>2000</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="139"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
@@ -2631,11 +2631,11 @@
         <f t="shared" ref="F13" si="0">D13</f>
         <v>178</v>
       </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
@@ -2657,11 +2657,11 @@
         <f>D14-E14</f>
         <v>52</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
@@ -2683,11 +2683,11 @@
         <f>D15-E15</f>
         <v>22</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="139"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
@@ -2709,11 +2709,11 @@
         <f>D16-E16</f>
         <v>2</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
@@ -2734,11 +2734,11 @@
       <c r="F17" s="62">
         <v>3</v>
       </c>
-      <c r="G17" s="108" t="s">
+      <c r="G17" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
@@ -2753,15 +2753,15 @@
         <v>0</v>
       </c>
       <c r="F18" s="62"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="64">
         <f>SUM(C11:C18)</f>
         <v>2960</v>
@@ -2778,9 +2778,9 @@
         <f>SUM(F10:F18)</f>
         <v>2958</v>
       </c>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
@@ -2794,23 +2794,23 @@
       <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="120" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="117" t="s">
+      <c r="E21" s="136"/>
+      <c r="F21" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117" t="s">
+      <c r="G21" s="133"/>
+      <c r="H21" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="117"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
@@ -2835,33 +2835,33 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="71"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="65"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
       <c r="F25" s="69"/>
       <c r="G25" s="69"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="69" t="s">
         <v>57</v>
       </c>
@@ -2870,10 +2870,10 @@
         <v>70</v>
       </c>
       <c r="G26" s="69"/>
-      <c r="H26" s="111" t="s">
+      <c r="H26" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="111"/>
+      <c r="I26" s="135"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
@@ -2887,39 +2887,18 @@
       <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="118"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="70"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:G3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
@@ -2933,6 +2912,27 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/6.BanHangVNET/CK/Chiết-Khấu-tháng-09-2024.xlsx
+++ b/6.BanHangVNET/CK/Chiết-Khấu-tháng-09-2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183ED27-3136-4DBF-918C-00F88178AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B373343-7B8A-4C93-A933-4355C3877166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bang Tinh CK" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
@@ -263,7 +263,7 @@
     <t>Lô 3-2024</t>
   </si>
   <si>
-    <t>Lô 2-2022</t>
+    <t>Lô 2-2024</t>
   </si>
 </sst>
 </file>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,16 +1709,18 @@
         <v>78</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D13" s="16">
         <v>10000</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ref="E13" si="1">C13*D13</f>
-        <v>120000</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>580000</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1728,16 +1730,18 @@
         <v>77</v>
       </c>
       <c r="C14" s="5">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="D14" s="16">
         <v>6000</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>1350000</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>2550000</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
@@ -1746,7 +1750,7 @@
       <c r="B15" s="89"/>
       <c r="C15" s="47">
         <f>SUM(C11:C14)</f>
-        <v>382</v>
+        <v>628</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="5"/>
@@ -1761,7 +1765,7 @@
       <c r="D16" s="90"/>
       <c r="E16" s="73">
         <f>SUM(E11:E14)</f>
-        <v>2340000</v>
+        <v>4000000</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -1911,7 +1915,7 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A4:F4"/>
   </mergeCells>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1921,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2038,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25">
         <f>'Bang Tinh CK'!E16</f>
-        <v>2340000</v>
+        <v>4000000</v>
       </c>
       <c r="D9" s="35"/>
     </row>
@@ -2116,7 +2120,7 @@
       </c>
       <c r="E15" s="19">
         <f>($C$9*D15)/$D$19</f>
-        <v>615789.47368421056</v>
+        <v>1081081.0810810812</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -2126,7 +2130,7 @@
       </c>
       <c r="H15" s="16">
         <f>((E15-F15)+($F$21/10))-G15</f>
-        <v>615789.47368421056</v>
+        <v>1081081.0810810812</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2144,7 +2148,7 @@
       </c>
       <c r="E16" s="19">
         <f>($C$9*D16)/$D$19</f>
-        <v>492631.57894736843</v>
+        <v>864864.86486486485</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -2154,7 +2158,7 @@
       </c>
       <c r="H16" s="16">
         <f>((E16-F16)+($F$21/10))-G16</f>
-        <v>492631.57894736843</v>
+        <v>864864.86486486485</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,7 +2176,7 @@
       </c>
       <c r="E17" s="19">
         <f>($C$9*D17)/$D$19</f>
-        <v>615789.47368421056</v>
+        <v>1081081.0810810812</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2182,7 +2186,7 @@
       </c>
       <c r="H17" s="16">
         <f>((E17-F17)+($F$21/10))-G17</f>
-        <v>615789.47368421056</v>
+        <v>1081081.0810810812</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,11 +2200,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="36">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E18" s="19">
         <f>($C$9*D18)/$D$19</f>
-        <v>615789.47368421056</v>
+        <v>972972.97297297302</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2210,7 +2214,7 @@
       </c>
       <c r="H18" s="16">
         <f>((E18-F18)+($F$21/10))-G18</f>
-        <v>615789.47368421056</v>
+        <v>972972.97297297302</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2221,7 +2225,7 @@
       <c r="C19" s="100"/>
       <c r="D19" s="32">
         <f>SUM(D15:D18)</f>
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="16"/>
@@ -2259,7 +2263,7 @@
       <c r="D21" s="34"/>
       <c r="E21" s="21">
         <f>SUM(E15:E18)</f>
-        <v>2340000</v>
+        <v>4000000</v>
       </c>
       <c r="F21" s="21">
         <f>SUM(F15:F20)</f>
@@ -2271,7 +2275,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H15:H20)</f>
-        <v>2340000</v>
+        <v>4000000</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2374,7 +2378,7 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A12:B12"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.31496062992125984" right="0" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
@@ -2387,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,11 +2577,11 @@
         <v>200</v>
       </c>
       <c r="E11" s="61">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F11" s="62">
         <f>D11-E11</f>
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G11" s="137" t="s">
         <v>80</v>
@@ -2593,17 +2597,17 @@
         <v>77</v>
       </c>
       <c r="C12" s="61">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D12" s="61">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E12" s="61">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="F12" s="62">
         <f>D12-E12</f>
-        <v>2000</v>
+        <v>1573</v>
       </c>
       <c r="G12" s="137" t="s">
         <v>79</v>
@@ -2750,7 +2754,7 @@
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="137"/>
@@ -2763,20 +2767,20 @@
       </c>
       <c r="B19" s="141"/>
       <c r="C19" s="64">
-        <f>SUM(C11:C18)</f>
-        <v>2960</v>
+        <f>SUM(C10:C18)</f>
+        <v>5958</v>
       </c>
       <c r="D19" s="64">
         <f>SUM(D10:D18)</f>
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="E19" s="64">
         <f>SUM(E10:E18)</f>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="F19" s="64">
         <f>SUM(F10:F18)</f>
-        <v>2958</v>
+        <v>2473</v>
       </c>
       <c r="G19" s="142"/>
       <c r="H19" s="143"/>
